--- a/zyg.xlsx
+++ b/zyg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujifa/Desktop/未命名文件夹 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujifa/Desktop/gitwujifa/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="480" windowWidth="25180" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="8160" yWindow="480" windowWidth="25180" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state (200 500) 500:请求超时 您登录状态失效</t>
+    <t>state (200 500) 500:请求超时 您登录状态失效 ….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1104,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
